--- a/Code/Results/Cases/Case_0_216/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_216/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.197149182025469</v>
+        <v>7.825809040780897</v>
       </c>
       <c r="D2">
-        <v>4.598040656598988</v>
+        <v>8.088210603204612</v>
       </c>
       <c r="E2">
-        <v>9.425641806803526</v>
+        <v>12.1568171631784</v>
       </c>
       <c r="F2">
-        <v>35.26835468652508</v>
+        <v>41.01905112221466</v>
       </c>
       <c r="G2">
-        <v>2.084444219246185</v>
+        <v>3.721019344694178</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.27303686278782</v>
+        <v>35.53810612300434</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.1946522364642</v>
+        <v>22.30392397076362</v>
       </c>
       <c r="L2">
-        <v>6.488006903695169</v>
+        <v>9.860337436749228</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.31664606778421</v>
+        <v>19.38035546254005</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.894828116754173</v>
+        <v>7.786805768057308</v>
       </c>
       <c r="D3">
-        <v>4.730787633645325</v>
+        <v>8.126481819646244</v>
       </c>
       <c r="E3">
-        <v>9.031776623257606</v>
+        <v>12.1222666669897</v>
       </c>
       <c r="F3">
-        <v>33.8235105675091</v>
+        <v>40.89232976696306</v>
       </c>
       <c r="G3">
-        <v>2.096520133827199</v>
+        <v>3.725220503346018</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.29759327772622</v>
+        <v>35.49398967238753</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.45775577784954</v>
+        <v>21.91405395893464</v>
       </c>
       <c r="L3">
-        <v>6.345637038813338</v>
+        <v>9.867151596782078</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.63750296884193</v>
+        <v>19.46180322354031</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.705226550302514</v>
+        <v>7.764255731764505</v>
       </c>
       <c r="D4">
-        <v>4.813935799942977</v>
+        <v>8.151068502986792</v>
       </c>
       <c r="E4">
-        <v>8.789821253929347</v>
+        <v>12.10377882119274</v>
       </c>
       <c r="F4">
-        <v>32.95468465974677</v>
+        <v>40.82738261361273</v>
       </c>
       <c r="G4">
-        <v>2.104080260932049</v>
+        <v>3.727931403224259</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.71886345187584</v>
+        <v>35.47711145676281</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.43098698004107</v>
+        <v>21.6773292543424</v>
       </c>
       <c r="L4">
-        <v>6.262158188549667</v>
+        <v>9.873195927503135</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.83624515523122</v>
+        <v>19.51387244045306</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.627040965843948</v>
+        <v>7.755424562167018</v>
       </c>
       <c r="D5">
-        <v>4.848239568292838</v>
+        <v>8.161362066386097</v>
       </c>
       <c r="E5">
-        <v>8.6912820636459</v>
+        <v>12.09693438141958</v>
       </c>
       <c r="F5">
-        <v>32.60541546576358</v>
+        <v>40.80415665706688</v>
       </c>
       <c r="G5">
-        <v>2.10720113286836</v>
+        <v>3.72906928590698</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.4881294922905</v>
+        <v>35.47279665164541</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.00344910643357</v>
+        <v>21.58166150025873</v>
       </c>
       <c r="L5">
-        <v>6.229117508814155</v>
+        <v>9.876126210741679</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.91776314731379</v>
+        <v>19.53561127435258</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.614005286782967</v>
+        <v>7.75397996783849</v>
       </c>
       <c r="D6">
-        <v>4.853961332076214</v>
+        <v>8.163087892036094</v>
       </c>
       <c r="E6">
-        <v>8.674926276822529</v>
+        <v>12.09583961356272</v>
       </c>
       <c r="F6">
-        <v>32.54771463281035</v>
+        <v>40.80049583641698</v>
       </c>
       <c r="G6">
-        <v>2.107721866772999</v>
+        <v>3.729260237729994</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.45012549462841</v>
+        <v>35.47223482896761</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.93191138889987</v>
+        <v>21.56582806080312</v>
       </c>
       <c r="L6">
-        <v>6.223689833133667</v>
+        <v>9.876640976234635</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.93133365802213</v>
+        <v>19.53925247500354</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.70417572668713</v>
+        <v>7.764135173014462</v>
       </c>
       <c r="D7">
-        <v>4.814396719228065</v>
+        <v>8.151206214103574</v>
       </c>
       <c r="E7">
-        <v>8.788491946761033</v>
+        <v>12.10368371819107</v>
       </c>
       <c r="F7">
-        <v>32.94995465150475</v>
+        <v>40.82705625409763</v>
       </c>
       <c r="G7">
-        <v>2.104122183523618</v>
+        <v>3.72794661463208</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.71573098726464</v>
+        <v>35.47704289479759</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.42525775056403</v>
+        <v>21.6760356352806</v>
       </c>
       <c r="L7">
-        <v>6.261708647515399</v>
+        <v>9.873233555745044</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.83734227679559</v>
+        <v>19.51416350884221</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.093775365092789</v>
+        <v>7.812074617957689</v>
       </c>
       <c r="D8">
-        <v>4.643474900606464</v>
+        <v>8.101181127285399</v>
       </c>
       <c r="E8">
-        <v>9.289910176423973</v>
+        <v>12.14434089363224</v>
       </c>
       <c r="F8">
-        <v>34.76646262297476</v>
+        <v>40.97269376764717</v>
       </c>
       <c r="G8">
-        <v>2.088579997654767</v>
+        <v>3.722440719244072</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.93252063414885</v>
+        <v>35.52077404576572</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.58360715800168</v>
+        <v>22.16902412506573</v>
       </c>
       <c r="L8">
-        <v>6.438092762922654</v>
+        <v>9.862300482703516</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.42697586831303</v>
+        <v>19.40801244498535</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.82372783324521</v>
+        <v>7.916867723206636</v>
       </c>
       <c r="D9">
-        <v>4.321169811013323</v>
+        <v>8.011682434157013</v>
       </c>
       <c r="E9">
-        <v>10.26936154616046</v>
+        <v>12.24549696811344</v>
       </c>
       <c r="F9">
-        <v>38.46944547189548</v>
+        <v>41.35983907863763</v>
       </c>
       <c r="G9">
-        <v>2.059080585021884</v>
+        <v>3.71267990587754</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.47938110065541</v>
+        <v>35.68761848805428</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28.79625919082949</v>
+        <v>23.15110717954797</v>
       </c>
       <c r="L9">
-        <v>6.815919689234395</v>
+        <v>9.855646466389775</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.63135650375084</v>
+        <v>19.21609247418676</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.337211851575673</v>
+        <v>7.99999144788069</v>
       </c>
       <c r="D10">
-        <v>4.092488944039073</v>
+        <v>7.95112488191588</v>
       </c>
       <c r="E10">
-        <v>10.98456152124768</v>
+        <v>12.33256185038842</v>
       </c>
       <c r="F10">
-        <v>41.27646687976921</v>
+        <v>41.70524897749265</v>
       </c>
       <c r="G10">
-        <v>2.037726369680037</v>
+        <v>3.706131743859007</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.45291693142032</v>
+        <v>35.85959709256677</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.65328108106139</v>
+        <v>23.87441591740145</v>
       </c>
       <c r="L10">
-        <v>7.114336859203522</v>
+        <v>9.859797741105657</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.04504926208047</v>
+        <v>19.08484334903934</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.565787566400167</v>
+        <v>8.03903613631446</v>
       </c>
       <c r="D11">
-        <v>3.99049434938553</v>
+        <v>7.924694634363116</v>
       </c>
       <c r="E11">
-        <v>11.30908616960086</v>
+        <v>12.37485587552046</v>
       </c>
       <c r="F11">
-        <v>42.5746314316026</v>
+        <v>41.87533854952519</v>
       </c>
       <c r="G11">
-        <v>2.028007999362737</v>
+        <v>3.703286273797907</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.37527767169558</v>
+        <v>35.9485033739465</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>32.90601138667733</v>
+        <v>24.20230923975707</v>
       </c>
       <c r="L11">
-        <v>7.255068678223216</v>
+        <v>9.863651717950221</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.77603996225696</v>
+        <v>19.02722108241564</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.651640547235337</v>
+        <v>8.053989285127974</v>
       </c>
       <c r="D12">
-        <v>3.952211053412497</v>
+        <v>7.914846239020486</v>
       </c>
       <c r="E12">
-        <v>11.43190650100824</v>
+        <v>12.3912500693438</v>
       </c>
       <c r="F12">
-        <v>43.06964540163562</v>
+        <v>41.9415802492818</v>
       </c>
       <c r="G12">
-        <v>2.024320117162002</v>
+        <v>3.702227797444926</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.72839875169198</v>
+        <v>35.98369554813085</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>33.37409580815132</v>
+        <v>24.32618676748814</v>
       </c>
       <c r="L12">
-        <v>7.309128393723611</v>
+        <v>9.865393642415402</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.67365924289329</v>
+        <v>19.00569824787824</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.633181398673104</v>
+        <v>8.050761545945871</v>
       </c>
       <c r="D13">
-        <v>3.960439904108048</v>
+        <v>7.916960152376451</v>
       </c>
       <c r="E13">
-        <v>11.40545692594201</v>
+        <v>12.38770259443329</v>
       </c>
       <c r="F13">
-        <v>42.96287515408736</v>
+        <v>41.92723295263671</v>
       </c>
       <c r="G13">
-        <v>2.02511483861221</v>
+        <v>3.702454914462898</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.65217076441279</v>
+        <v>35.97604862058277</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>33.27355757594385</v>
+        <v>24.29952227717837</v>
       </c>
       <c r="L13">
-        <v>7.297450544272585</v>
+        <v>9.865005927187793</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.69573475100355</v>
+        <v>19.01032037972949</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.572864682150581</v>
+        <v>8.04026303259149</v>
       </c>
       <c r="D14">
-        <v>3.987337587425969</v>
+        <v>7.923881194107113</v>
       </c>
       <c r="E14">
-        <v>11.31919167832806</v>
+        <v>12.37619710145741</v>
       </c>
       <c r="F14">
-        <v>42.61528511979641</v>
+        <v>41.88075176125765</v>
       </c>
       <c r="G14">
-        <v>2.027704795127978</v>
+        <v>3.703198811437787</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.40424996725912</v>
+        <v>35.95136814835904</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>32.94464434245158</v>
+        <v>24.21250719320055</v>
       </c>
       <c r="L14">
-        <v>7.259500470645522</v>
+        <v>9.86378936663675</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.76762845241885</v>
+        <v>19.02544443652285</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.535828132078816</v>
+        <v>8.033853958787599</v>
       </c>
       <c r="D15">
-        <v>4.003859283230489</v>
+        <v>7.928141374152609</v>
       </c>
       <c r="E15">
-        <v>11.26634461021262</v>
+        <v>12.36919867729384</v>
       </c>
       <c r="F15">
-        <v>42.40283637581063</v>
+        <v>41.85251833785198</v>
       </c>
       <c r="G15">
-        <v>2.029289979003532</v>
+        <v>3.703656945709903</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.25290285889657</v>
+        <v>35.9364489656239</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>32.74236999757589</v>
+        <v>24.15916677200861</v>
       </c>
       <c r="L15">
-        <v>7.23635670505562</v>
+        <v>9.863080972035998</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.81159279146966</v>
+        <v>19.03474703307662</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.322174078823372</v>
+        <v>7.997463774963371</v>
       </c>
       <c r="D16">
-        <v>4.099198965687537</v>
+        <v>7.952874603457134</v>
       </c>
       <c r="E16">
-        <v>10.96333986384407</v>
+        <v>12.32985123985016</v>
       </c>
       <c r="F16">
-        <v>41.19208439697896</v>
+        <v>41.694391442564</v>
       </c>
       <c r="G16">
-        <v>2.038360816912781</v>
+        <v>3.706320373665994</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.39315702485533</v>
+        <v>35.85400086648677</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.5705048026175</v>
+        <v>23.85295357497521</v>
       </c>
       <c r="L16">
-        <v>7.105243990829354</v>
+        <v>9.859585418648331</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.06256841488023</v>
+        <v>19.08865084321218</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.189827006829792</v>
+        <v>7.975448421862105</v>
       </c>
       <c r="D17">
-        <v>4.158234164331735</v>
+        <v>7.968333502738756</v>
       </c>
       <c r="E17">
-        <v>10.77726921283842</v>
+        <v>12.30639567228441</v>
       </c>
       <c r="F17">
-        <v>40.45498264472823</v>
+        <v>41.6006842649797</v>
       </c>
       <c r="G17">
-        <v>2.043919647430243</v>
+        <v>3.707988354679136</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.87221306960548</v>
+        <v>35.80614916883372</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30.83988194148782</v>
+        <v>23.66471883135646</v>
       </c>
       <c r="L17">
-        <v>7.026118341599585</v>
+        <v>9.857944389270944</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.21582365741917</v>
+        <v>19.12225121614604</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.113230693236362</v>
+        <v>7.962902242548796</v>
       </c>
       <c r="D18">
-        <v>4.192377032919251</v>
+        <v>7.977330286748989</v>
       </c>
       <c r="E18">
-        <v>10.6701639275722</v>
+        <v>12.29315816300386</v>
       </c>
       <c r="F18">
-        <v>40.0329886863035</v>
+        <v>41.54800843733132</v>
       </c>
       <c r="G18">
-        <v>2.047117026542039</v>
+        <v>3.708960289872815</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.57486986173708</v>
+        <v>35.77963138658726</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>30.41519768825874</v>
+        <v>23.55635066472336</v>
       </c>
       <c r="L18">
-        <v>6.98107228148043</v>
+        <v>9.857185537443168</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.30376828861126</v>
+        <v>19.14177351083783</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.08721491444028</v>
+        <v>7.958674603880479</v>
       </c>
       <c r="D19">
-        <v>4.203968334669512</v>
+        <v>7.980394534517727</v>
       </c>
       <c r="E19">
-        <v>10.6338848451048</v>
+        <v>12.28871994868321</v>
       </c>
       <c r="F19">
-        <v>39.89043789068574</v>
+        <v>41.53038408788556</v>
       </c>
       <c r="G19">
-        <v>2.048199819536928</v>
+        <v>3.709291531008578</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.47458028762752</v>
+        <v>35.77082581957599</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>30.27062998906603</v>
+        <v>23.51964567052612</v>
       </c>
       <c r="L19">
-        <v>6.965898973872988</v>
+        <v>9.856960382799025</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.33351500667675</v>
+        <v>19.14841719592194</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.203964549762174</v>
+        <v>7.977780006017428</v>
       </c>
       <c r="D20">
-        <v>4.151930105026528</v>
+        <v>7.966676989297857</v>
       </c>
       <c r="E20">
-        <v>10.79708503339892</v>
+        <v>12.30886637687532</v>
       </c>
       <c r="F20">
-        <v>40.53324256120132</v>
+        <v>41.61053328975257</v>
       </c>
       <c r="G20">
-        <v>2.043327939766332</v>
+        <v>3.707809496632789</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.92742956725869</v>
+        <v>35.81113908462673</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.91811540881331</v>
+        <v>23.68476806099112</v>
       </c>
       <c r="L20">
-        <v>7.034492957968472</v>
+        <v>9.858099930728006</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.19953170494735</v>
+        <v>19.11865410369245</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.590600033932041</v>
+        <v>8.043342222481773</v>
       </c>
       <c r="D21">
-        <v>3.97942735974673</v>
+        <v>7.921843973857285</v>
       </c>
       <c r="E21">
-        <v>11.34453121992811</v>
+        <v>12.37956634275287</v>
       </c>
       <c r="F21">
-        <v>42.71728393507188</v>
+        <v>41.89435494923593</v>
       </c>
       <c r="G21">
-        <v>2.026944334703648</v>
+        <v>3.70297979512074</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.47696299841256</v>
+        <v>35.95857609185144</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.04142108869252</v>
+        <v>24.23807442613748</v>
       </c>
       <c r="L21">
-        <v>7.270626008941965</v>
+        <v>9.864139034714773</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.74652702813527</v>
+        <v>19.02099407841655</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.839208535358237</v>
+        <v>8.087164341118832</v>
       </c>
       <c r="D22">
-        <v>3.868709649502569</v>
+        <v>7.893476331808785</v>
       </c>
       <c r="E22">
-        <v>11.70195804660955</v>
+        <v>12.42797406502755</v>
       </c>
       <c r="F22">
-        <v>44.16495338705598</v>
+        <v>42.09051271931508</v>
       </c>
       <c r="G22">
-        <v>2.016187401418374</v>
+        <v>3.69993423367122</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.51230213295138</v>
+        <v>36.06381925536685</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>34.39268049409958</v>
+        <v>24.59795657999098</v>
       </c>
       <c r="L22">
-        <v>7.429462361393628</v>
+        <v>9.86973242367727</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.44736959690389</v>
+        <v>18.9589004736433</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.706884316095191</v>
+        <v>8.063689718540529</v>
       </c>
       <c r="D23">
-        <v>3.927594011322546</v>
+        <v>7.908531455350873</v>
       </c>
       <c r="E23">
-        <v>11.51120055480311</v>
+        <v>12.40193938290959</v>
       </c>
       <c r="F23">
-        <v>43.39028277639898</v>
+        <v>41.98485517866533</v>
       </c>
       <c r="G23">
-        <v>2.021935746857154</v>
+        <v>3.701549600157884</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.95751917788226</v>
+        <v>36.00683977510511</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.67465425709373</v>
+        <v>24.40607907489156</v>
       </c>
       <c r="L23">
-        <v>7.344254662842753</v>
+        <v>9.866596561512244</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.60738578810099</v>
+        <v>18.99188315331411</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.197574550605541</v>
+        <v>7.976725551188321</v>
       </c>
       <c r="D24">
-        <v>4.154779541975674</v>
+        <v>7.967425558671392</v>
       </c>
       <c r="E24">
-        <v>10.78812671146848</v>
+        <v>12.30774860009651</v>
       </c>
       <c r="F24">
-        <v>40.49785574820864</v>
+        <v>41.6060768128294</v>
       </c>
       <c r="G24">
-        <v>2.043595445501445</v>
+        <v>3.707890317882566</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.90245949981015</v>
+        <v>35.80888005067627</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.88276054232747</v>
+        <v>23.67570426047152</v>
       </c>
       <c r="L24">
-        <v>7.030705413588384</v>
+        <v>9.858029035445849</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.20689779358349</v>
+        <v>19.12027971956335</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.630180144667684</v>
+        <v>7.887407951374116</v>
       </c>
       <c r="D25">
-        <v>4.406986030403553</v>
+        <v>8.034978282091757</v>
       </c>
       <c r="E25">
-        <v>10.00511139397308</v>
+        <v>12.21586761562084</v>
       </c>
       <c r="F25">
-        <v>37.45291294854253</v>
+        <v>41.24431387743122</v>
       </c>
       <c r="G25">
-        <v>2.066982744488824</v>
+        <v>3.715210419715592</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.7729339827324</v>
+        <v>35.63379566105591</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.69984075175158</v>
+        <v>22.88457887860968</v>
       </c>
       <c r="L25">
-        <v>6.710170636993254</v>
+        <v>9.855860309069987</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.84632120327576</v>
+        <v>19.26628830543068</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_216/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_216/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.825809040780897</v>
+        <v>6.197149182025501</v>
       </c>
       <c r="D2">
-        <v>8.088210603204612</v>
+        <v>4.598040656598994</v>
       </c>
       <c r="E2">
-        <v>12.1568171631784</v>
+        <v>9.425641806803567</v>
       </c>
       <c r="F2">
-        <v>41.01905112221466</v>
+        <v>35.26835468652503</v>
       </c>
       <c r="G2">
-        <v>3.721019344694178</v>
+        <v>2.084444219246185</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.53810612300434</v>
+        <v>28.27303686278777</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>22.30392397076362</v>
+        <v>25.19465223646428</v>
       </c>
       <c r="L2">
-        <v>9.860337436749228</v>
+        <v>6.488006903695212</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.38035546254005</v>
+        <v>12.31664606778418</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.786805768057308</v>
+        <v>5.89482811675424</v>
       </c>
       <c r="D3">
-        <v>8.126481819646244</v>
+        <v>4.73078763364521</v>
       </c>
       <c r="E3">
-        <v>12.1222666669897</v>
+        <v>9.031776623257667</v>
       </c>
       <c r="F3">
-        <v>40.89232976696306</v>
+        <v>33.82351056750907</v>
       </c>
       <c r="G3">
-        <v>3.725220503346018</v>
+        <v>2.096520133827062</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>35.49398967238753</v>
+        <v>27.29759327772622</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>21.91405395893464</v>
+        <v>23.45775577784954</v>
       </c>
       <c r="L3">
-        <v>9.867151596782078</v>
+        <v>6.345637038813377</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.46180322354031</v>
+        <v>12.63750296884189</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.764255731764505</v>
+        <v>5.705226550302533</v>
       </c>
       <c r="D4">
-        <v>8.151068502986792</v>
+        <v>4.813935799943173</v>
       </c>
       <c r="E4">
-        <v>12.10377882119274</v>
+        <v>8.789821253929393</v>
       </c>
       <c r="F4">
-        <v>40.82738261361273</v>
+        <v>32.95468465974684</v>
       </c>
       <c r="G4">
-        <v>3.727931403224259</v>
+        <v>2.104080260932318</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>35.47711145676281</v>
+        <v>26.71886345187592</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.6773292543424</v>
+        <v>22.43098698004108</v>
       </c>
       <c r="L4">
-        <v>9.873195927503135</v>
+        <v>6.262158188549756</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.51387244045306</v>
+        <v>12.83624515523132</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.755424562167018</v>
+        <v>5.627040965843782</v>
       </c>
       <c r="D5">
-        <v>8.161362066386097</v>
+        <v>4.848239568293149</v>
       </c>
       <c r="E5">
-        <v>12.09693438141958</v>
+        <v>8.6912820636459</v>
       </c>
       <c r="F5">
-        <v>40.80415665706688</v>
+        <v>32.60541546576343</v>
       </c>
       <c r="G5">
-        <v>3.72906928590698</v>
+        <v>2.107201132868626</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>35.47279665164541</v>
+        <v>26.48812949229041</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.58166150025873</v>
+        <v>22.00344910643355</v>
       </c>
       <c r="L5">
-        <v>9.876126210741679</v>
+        <v>6.2291175088142</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.53561127435258</v>
+        <v>12.91776314731385</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.75397996783849</v>
+        <v>5.614005286782973</v>
       </c>
       <c r="D6">
-        <v>8.163087892036094</v>
+        <v>4.85396133207634</v>
       </c>
       <c r="E6">
-        <v>12.09583961356272</v>
+        <v>8.674926276822564</v>
       </c>
       <c r="F6">
-        <v>40.80049583641698</v>
+        <v>32.54771463281033</v>
       </c>
       <c r="G6">
-        <v>3.729260237729994</v>
+        <v>2.107721866772999</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>35.47223482896761</v>
+        <v>26.45012549462841</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.56582806080312</v>
+        <v>21.93191138889986</v>
       </c>
       <c r="L6">
-        <v>9.876640976234635</v>
+        <v>6.223689833133693</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.53925247500354</v>
+        <v>12.93133365802223</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.764135173014462</v>
+        <v>5.704175726687083</v>
       </c>
       <c r="D7">
-        <v>8.151206214103574</v>
+        <v>4.814396719228004</v>
       </c>
       <c r="E7">
-        <v>12.10368371819107</v>
+        <v>8.788491946760956</v>
       </c>
       <c r="F7">
-        <v>40.82705625409763</v>
+        <v>32.94995465150468</v>
       </c>
       <c r="G7">
-        <v>3.72794661463208</v>
+        <v>2.104122183523884</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>35.47704289479759</v>
+        <v>26.71573098726454</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.6760356352806</v>
+        <v>22.42525775056403</v>
       </c>
       <c r="L7">
-        <v>9.873233555745044</v>
+        <v>6.261708647515418</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.51416350884221</v>
+        <v>12.83734227679556</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.812074617957689</v>
+        <v>6.093775365092788</v>
       </c>
       <c r="D8">
-        <v>8.101181127285399</v>
+        <v>4.643474900606397</v>
       </c>
       <c r="E8">
-        <v>12.14434089363224</v>
+        <v>9.289910176423918</v>
       </c>
       <c r="F8">
-        <v>40.97269376764717</v>
+        <v>34.76646262297469</v>
       </c>
       <c r="G8">
-        <v>3.722440719244072</v>
+        <v>2.088579997654902</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.52077404576572</v>
+        <v>27.93252063414878</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.16902412506573</v>
+        <v>24.58360715800174</v>
       </c>
       <c r="L8">
-        <v>9.862300482703516</v>
+        <v>6.438092762922568</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.40801244498535</v>
+        <v>12.42697586831293</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.916867723206636</v>
+        <v>6.82372783324521</v>
       </c>
       <c r="D9">
-        <v>8.011682434157013</v>
+        <v>4.32116981101339</v>
       </c>
       <c r="E9">
-        <v>12.24549696811344</v>
+        <v>10.26936154616046</v>
       </c>
       <c r="F9">
-        <v>41.35983907863763</v>
+        <v>38.46944547189546</v>
       </c>
       <c r="G9">
-        <v>3.71267990587754</v>
+        <v>2.059080585021882</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.68761848805428</v>
+        <v>30.47938110065542</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.15110717954797</v>
+        <v>28.79625919082941</v>
       </c>
       <c r="L9">
-        <v>9.855646466389775</v>
+        <v>6.815919689234374</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.21609247418676</v>
+        <v>11.63135650375084</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.99999144788069</v>
+        <v>7.337211851575701</v>
       </c>
       <c r="D10">
-        <v>7.95112488191588</v>
+        <v>4.092488944039185</v>
       </c>
       <c r="E10">
-        <v>12.33256185038842</v>
+        <v>10.98456152124769</v>
       </c>
       <c r="F10">
-        <v>41.70524897749265</v>
+        <v>41.27646687976922</v>
       </c>
       <c r="G10">
-        <v>3.706131743859007</v>
+        <v>2.037726369679902</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.85959709256677</v>
+        <v>32.45291693142033</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.87441591740145</v>
+        <v>31.65328108106135</v>
       </c>
       <c r="L10">
-        <v>9.859797741105657</v>
+        <v>7.114336859203539</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.08484334903934</v>
+        <v>11.04504926208046</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.03903613631446</v>
+        <v>7.565787566400117</v>
       </c>
       <c r="D11">
-        <v>7.924694634363116</v>
+        <v>3.99049434938566</v>
       </c>
       <c r="E11">
-        <v>12.37485587552046</v>
+        <v>11.30908616960082</v>
       </c>
       <c r="F11">
-        <v>41.87533854952519</v>
+        <v>42.5746314316026</v>
       </c>
       <c r="G11">
-        <v>3.703286273797907</v>
+        <v>2.028007999362599</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.9485033739465</v>
+        <v>33.37527767169559</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.20230923975707</v>
+        <v>32.90601138667733</v>
       </c>
       <c r="L11">
-        <v>9.863651717950221</v>
+        <v>7.255068678223199</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.02722108241564</v>
+        <v>10.77603996225696</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.053989285127974</v>
+        <v>7.651640547235317</v>
       </c>
       <c r="D12">
-        <v>7.914846239020486</v>
+        <v>3.952211053412631</v>
       </c>
       <c r="E12">
-        <v>12.3912500693438</v>
+        <v>11.43190650100822</v>
       </c>
       <c r="F12">
-        <v>41.9415802492818</v>
+        <v>43.0696454016356</v>
       </c>
       <c r="G12">
-        <v>3.702227797444926</v>
+        <v>2.024320117161602</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.98369554813085</v>
+        <v>33.72839875169197</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.32618676748814</v>
+        <v>33.37409580815132</v>
       </c>
       <c r="L12">
-        <v>9.865393642415402</v>
+        <v>7.309128393723628</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.00569824787824</v>
+        <v>10.67365924289329</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.050761545945871</v>
+        <v>7.633181398673145</v>
       </c>
       <c r="D13">
-        <v>7.916960152376451</v>
+        <v>3.960439904107935</v>
       </c>
       <c r="E13">
-        <v>12.38770259443329</v>
+        <v>11.40545692594203</v>
       </c>
       <c r="F13">
-        <v>41.92723295263671</v>
+        <v>42.96287515408748</v>
       </c>
       <c r="G13">
-        <v>3.702454914462898</v>
+        <v>2.025114838612205</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.97604862058277</v>
+        <v>33.65217076441289</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.29952227717837</v>
+        <v>33.27355757594395</v>
       </c>
       <c r="L13">
-        <v>9.865005927187793</v>
+        <v>7.297450544272594</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.01032037972949</v>
+        <v>10.69573475100352</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.04026303259149</v>
+        <v>7.572864682150625</v>
       </c>
       <c r="D14">
-        <v>7.923881194107113</v>
+        <v>3.987337587425856</v>
       </c>
       <c r="E14">
-        <v>12.37619710145741</v>
+        <v>11.31919167832806</v>
       </c>
       <c r="F14">
-        <v>41.88075176125765</v>
+        <v>42.61528511979645</v>
       </c>
       <c r="G14">
-        <v>3.703198811437787</v>
+        <v>2.027704795128512</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.95136814835904</v>
+        <v>33.40424996725917</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.21250719320055</v>
+        <v>32.94464434245155</v>
       </c>
       <c r="L14">
-        <v>9.86378936663675</v>
+        <v>7.259500470645512</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.02544443652285</v>
+        <v>10.76762845241888</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.033853958787599</v>
+        <v>7.535828132078852</v>
       </c>
       <c r="D15">
-        <v>7.928141374152609</v>
+        <v>4.003859283230588</v>
       </c>
       <c r="E15">
-        <v>12.36919867729384</v>
+        <v>11.26634461021262</v>
       </c>
       <c r="F15">
-        <v>41.85251833785198</v>
+        <v>42.40283637581054</v>
       </c>
       <c r="G15">
-        <v>3.703656945709903</v>
+        <v>2.029289979003406</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.9364489656239</v>
+        <v>33.25290285889652</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.15916677200861</v>
+        <v>32.74236999757586</v>
       </c>
       <c r="L15">
-        <v>9.863080972035998</v>
+        <v>7.236356705055588</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.03474703307662</v>
+        <v>10.81159279146965</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.997463774963371</v>
+        <v>7.322174078823347</v>
       </c>
       <c r="D16">
-        <v>7.952874603457134</v>
+        <v>4.099198965687481</v>
       </c>
       <c r="E16">
-        <v>12.32985123985016</v>
+        <v>10.96333986384409</v>
       </c>
       <c r="F16">
-        <v>41.694391442564</v>
+        <v>41.19208439697896</v>
       </c>
       <c r="G16">
-        <v>3.706320373665994</v>
+        <v>2.038360816912641</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.85400086648677</v>
+        <v>32.39315702485533</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.85295357497521</v>
+        <v>31.57050480261752</v>
       </c>
       <c r="L16">
-        <v>9.859585418648331</v>
+        <v>7.105243990829363</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.08865084321218</v>
+        <v>11.06256841488023</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.975448421862105</v>
+        <v>7.189827006829742</v>
       </c>
       <c r="D17">
-        <v>7.968333502738756</v>
+        <v>4.158234164331843</v>
       </c>
       <c r="E17">
-        <v>12.30639567228441</v>
+        <v>10.77726921283841</v>
       </c>
       <c r="F17">
-        <v>41.6006842649797</v>
+        <v>40.45498264472823</v>
       </c>
       <c r="G17">
-        <v>3.707988354679136</v>
+        <v>2.043919647429979</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>35.80614916883372</v>
+        <v>31.87221306960549</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.66471883135646</v>
+        <v>30.83988194148774</v>
       </c>
       <c r="L17">
-        <v>9.857944389270944</v>
+        <v>7.026118341599587</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.12225121614604</v>
+        <v>11.21582365741924</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.962902242548796</v>
+        <v>7.113230693236374</v>
       </c>
       <c r="D18">
-        <v>7.977330286748989</v>
+        <v>4.192377032919364</v>
       </c>
       <c r="E18">
-        <v>12.29315816300386</v>
+        <v>10.67016392757219</v>
       </c>
       <c r="F18">
-        <v>41.54800843733132</v>
+        <v>40.03298868630353</v>
       </c>
       <c r="G18">
-        <v>3.708960289872815</v>
+        <v>2.047117026542037</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.77963138658726</v>
+        <v>31.57486986173713</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.55635066472336</v>
+        <v>30.41519768825865</v>
       </c>
       <c r="L18">
-        <v>9.857185537443168</v>
+        <v>6.981072281480431</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.14177351083783</v>
+        <v>11.30376828861136</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.958674603880479</v>
+        <v>7.087214914440253</v>
       </c>
       <c r="D19">
-        <v>7.980394534517727</v>
+        <v>4.203968334669459</v>
       </c>
       <c r="E19">
-        <v>12.28871994868321</v>
+        <v>10.6338848451048</v>
       </c>
       <c r="F19">
-        <v>41.53038408788556</v>
+        <v>39.89043789068573</v>
       </c>
       <c r="G19">
-        <v>3.709291531008578</v>
+        <v>2.048199819537192</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.77082581957599</v>
+        <v>31.47458028762749</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.51964567052612</v>
+        <v>30.27062998906605</v>
       </c>
       <c r="L19">
-        <v>9.856960382799025</v>
+        <v>6.965898973872962</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.14841719592194</v>
+        <v>11.33351500667672</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.977780006017428</v>
+        <v>7.203964549762174</v>
       </c>
       <c r="D20">
-        <v>7.966676989297857</v>
+        <v>4.151930105026467</v>
       </c>
       <c r="E20">
-        <v>12.30886637687532</v>
+        <v>10.7970850333989</v>
       </c>
       <c r="F20">
-        <v>41.61053328975257</v>
+        <v>40.53324256120127</v>
       </c>
       <c r="G20">
-        <v>3.707809496632789</v>
+        <v>2.043327939766332</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35.81113908462673</v>
+        <v>31.92742956725864</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.68476806099112</v>
+        <v>30.9181154088133</v>
       </c>
       <c r="L20">
-        <v>9.858099930728006</v>
+        <v>7.034492957968485</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.11865410369245</v>
+        <v>11.19953170494731</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.043342222481773</v>
+        <v>7.590600033932025</v>
       </c>
       <c r="D21">
-        <v>7.921843973857285</v>
+        <v>3.9794273597466</v>
       </c>
       <c r="E21">
-        <v>12.37956634275287</v>
+        <v>11.34453121992812</v>
       </c>
       <c r="F21">
-        <v>41.89435494923593</v>
+        <v>42.71728393507187</v>
       </c>
       <c r="G21">
-        <v>3.70297979512074</v>
+        <v>2.026944334703779</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.95857609185144</v>
+        <v>33.47696299841254</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.23807442613748</v>
+        <v>33.04142108869252</v>
       </c>
       <c r="L21">
-        <v>9.864139034714773</v>
+        <v>7.270626008941973</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.02099407841655</v>
+        <v>10.74652702813527</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.087164341118832</v>
+        <v>7.839208535358272</v>
       </c>
       <c r="D22">
-        <v>7.893476331808785</v>
+        <v>3.868709649502843</v>
       </c>
       <c r="E22">
-        <v>12.42797406502755</v>
+        <v>11.70195804660954</v>
       </c>
       <c r="F22">
-        <v>42.09051271931508</v>
+        <v>44.16495338705597</v>
       </c>
       <c r="G22">
-        <v>3.69993423367122</v>
+        <v>2.016187401418507</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>36.06381925536685</v>
+        <v>34.51230213295138</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.59795657999098</v>
+        <v>34.39268049409952</v>
       </c>
       <c r="L22">
-        <v>9.86973242367727</v>
+        <v>7.429462361393615</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.9589004736433</v>
+        <v>10.44736959690393</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.063689718540529</v>
+        <v>7.706884316095161</v>
       </c>
       <c r="D23">
-        <v>7.908531455350873</v>
+        <v>3.927594011322626</v>
       </c>
       <c r="E23">
-        <v>12.40193938290959</v>
+        <v>11.5112005548031</v>
       </c>
       <c r="F23">
-        <v>41.98485517866533</v>
+        <v>43.39028277639892</v>
       </c>
       <c r="G23">
-        <v>3.701549600157884</v>
+        <v>2.021935746857147</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>36.00683977510511</v>
+        <v>33.95751917788222</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.40607907489156</v>
+        <v>33.67465425709376</v>
       </c>
       <c r="L23">
-        <v>9.866596561512244</v>
+        <v>7.344254662842754</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.99188315331411</v>
+        <v>10.60738578810096</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.976725551188321</v>
+        <v>7.197574550605563</v>
       </c>
       <c r="D24">
-        <v>7.967425558671392</v>
+        <v>4.154779541975572</v>
       </c>
       <c r="E24">
-        <v>12.30774860009651</v>
+        <v>10.78812671146851</v>
       </c>
       <c r="F24">
-        <v>41.6060768128294</v>
+        <v>40.49785574820869</v>
       </c>
       <c r="G24">
-        <v>3.707890317882566</v>
+        <v>2.043595445501443</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35.80888005067627</v>
+        <v>31.90245949981018</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.67570426047152</v>
+        <v>30.88276054232755</v>
       </c>
       <c r="L24">
-        <v>9.858029035445849</v>
+        <v>7.030705413588375</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.12027971956335</v>
+        <v>11.20689779358346</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.887407951374116</v>
+        <v>6.630180144667758</v>
       </c>
       <c r="D25">
-        <v>8.034978282091757</v>
+        <v>4.406986030403685</v>
       </c>
       <c r="E25">
-        <v>12.21586761562084</v>
+        <v>10.00511139397308</v>
       </c>
       <c r="F25">
-        <v>41.24431387743122</v>
+        <v>37.45291294854253</v>
       </c>
       <c r="G25">
-        <v>3.715210419715592</v>
+        <v>2.066982744488693</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>35.63379566105591</v>
+        <v>29.77293398273238</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.88457887860968</v>
+        <v>27.69984075175175</v>
       </c>
       <c r="L25">
-        <v>9.855860309069987</v>
+        <v>6.71017063699325</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.26628830543068</v>
+        <v>11.84632120327563</v>
       </c>
       <c r="O25">
         <v>0</v>
